--- a/running_2.xlsx
+++ b/running_2.xlsx
@@ -61,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -218,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -258,7 +259,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,13 +545,14 @@
   <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -594,1862 +597,1862 @@
       <c r="A2" s="14">
         <v>45111</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="B2" s="15">
+        <v>100</v>
+      </c>
+      <c r="C2" s="15">
+        <v>100</v>
+      </c>
+      <c r="D2" s="15">
+        <v>100</v>
+      </c>
+      <c r="E2" s="15">
+        <v>100</v>
+      </c>
+      <c r="F2" s="15">
+        <v>100</v>
+      </c>
+      <c r="G2" s="15">
+        <v>100</v>
+      </c>
+      <c r="H2" s="15">
+        <v>100</v>
+      </c>
+      <c r="I2" s="15">
+        <v>100</v>
+      </c>
+      <c r="J2" s="15">
+        <v>100</v>
+      </c>
+      <c r="K2" s="15">
+        <v>100</v>
+      </c>
+      <c r="L2" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>45112</v>
       </c>
-      <c r="B3" s="15">
-        <v>6.5385377451951943E-3</v>
-      </c>
-      <c r="C3" s="15">
-        <v>-5.4104319891792318E-3</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1.5983347582053664E-3</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3.6354771805962027E-3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1.1683949174821073E-3</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1.1498771498771543E-2</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1.7338033866960423E-3</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2.8495876137013543E-3</v>
-      </c>
-      <c r="J3" s="15">
-        <v>2.7877697841726556E-2</v>
-      </c>
-      <c r="K3" s="15">
-        <v>-3.9092295957283696E-3</v>
-      </c>
-      <c r="L3" s="15">
-        <v>2.4854962385352231E-3</v>
+      <c r="B3" s="16">
+        <v>100.65385377451952</v>
+      </c>
+      <c r="C3" s="16">
+        <v>99.458956801082081</v>
+      </c>
+      <c r="D3" s="16">
+        <v>100.15983347582053</v>
+      </c>
+      <c r="E3" s="16">
+        <v>100.36354771805962</v>
+      </c>
+      <c r="F3" s="16">
+        <v>100.11683949174821</v>
+      </c>
+      <c r="G3" s="16">
+        <v>101.14987714987716</v>
+      </c>
+      <c r="H3" s="16">
+        <v>100.1733803386696</v>
+      </c>
+      <c r="I3" s="16">
+        <v>100.28495876137013</v>
+      </c>
+      <c r="J3" s="16">
+        <v>102.78776978417265</v>
+      </c>
+      <c r="K3" s="16">
+        <v>99.609077040427167</v>
+      </c>
+      <c r="L3" s="16">
+        <v>100.24854962385352</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>45113</v>
       </c>
-      <c r="B4" s="15">
-        <v>1.495938181097678E-2</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1.5808605968382627E-2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>-9.2926439430551788E-4</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1.0865812089862148E-2</v>
-      </c>
-      <c r="F4" s="15">
-        <v>3.3007156418869421E-2</v>
-      </c>
-      <c r="G4" s="15">
-        <v>-3.9312039312039415E-3</v>
-      </c>
-      <c r="H4" s="15">
-        <v>5.2014101600879048E-3</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1.302668623406289E-2</v>
-      </c>
-      <c r="J4" s="15">
-        <v>2.248201438848918E-2</v>
-      </c>
-      <c r="K4" s="15">
-        <v>-6.0068649885582914E-3</v>
-      </c>
-      <c r="L4" s="15">
-        <v>8.395722409632711E-3</v>
+      <c r="B4" s="16">
+        <v>101.49593818109767</v>
+      </c>
+      <c r="C4" s="16">
+        <v>101.58086059683826</v>
+      </c>
+      <c r="D4" s="16">
+        <v>99.907073560569444</v>
+      </c>
+      <c r="E4" s="16">
+        <v>101.08658120898622</v>
+      </c>
+      <c r="F4" s="16">
+        <v>103.30071564188694</v>
+      </c>
+      <c r="G4" s="16">
+        <v>99.606879606879602</v>
+      </c>
+      <c r="H4" s="16">
+        <v>100.52014101600879</v>
+      </c>
+      <c r="I4" s="16">
+        <v>101.30266862340629</v>
+      </c>
+      <c r="J4" s="16">
+        <v>102.24820143884892</v>
+      </c>
+      <c r="K4" s="16">
+        <v>99.399313501144178</v>
+      </c>
+      <c r="L4" s="16">
+        <v>100.83957224096326</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>45114</v>
       </c>
-      <c r="B5" s="15">
-        <v>1.0303150386368198E-2</v>
-      </c>
-      <c r="C5" s="15">
-        <v>4.5227829909544326E-2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>-1.1114002155893421E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>-5.077482380102416E-3</v>
-      </c>
-      <c r="F5" s="15">
-        <v>6.9665546954870594E-2</v>
-      </c>
-      <c r="G5" s="15">
-        <v>-1.9066339066339033E-2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>6.1261052996590681E-3</v>
-      </c>
-      <c r="I5" s="15">
-        <v>2.0867328263598939E-2</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1.3489208633092886E-3</v>
-      </c>
-      <c r="K5" s="15">
-        <v>-1.2490465293668818E-2</v>
-      </c>
-      <c r="L5" s="15">
-        <v>5.3454779370687433E-4</v>
+      <c r="B5" s="16">
+        <v>101.03031503863681</v>
+      </c>
+      <c r="C5" s="16">
+        <v>104.52278299095443</v>
+      </c>
+      <c r="D5" s="16">
+        <v>98.888599784410658</v>
+      </c>
+      <c r="E5" s="16">
+        <v>99.492251761989763</v>
+      </c>
+      <c r="F5" s="16">
+        <v>106.96655469548706</v>
+      </c>
+      <c r="G5" s="16">
+        <v>98.0933660933661</v>
+      </c>
+      <c r="H5" s="16">
+        <v>100.61261052996591</v>
+      </c>
+      <c r="I5" s="16">
+        <v>102.08673282635989</v>
+      </c>
+      <c r="J5" s="16">
+        <v>100.13489208633092</v>
+      </c>
+      <c r="K5" s="16">
+        <v>98.750953470633121</v>
+      </c>
+      <c r="L5" s="16">
+        <v>100.05345477937068</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>45117</v>
       </c>
-      <c r="B6" s="15">
-        <v>7.0041608876560302E-2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>4.5988671908022472E-2</v>
-      </c>
-      <c r="D6" s="15">
-        <v>-1.1894584247109985E-2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>-9.3831874384295855E-3</v>
-      </c>
-      <c r="F6" s="15">
-        <v>6.8935300131444333E-2</v>
-      </c>
-      <c r="G6" s="15">
-        <v>-3.9901719901719979E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>2.3406345720395239E-2</v>
-      </c>
-      <c r="I6" s="15">
-        <v>-5.921532003981822E-3</v>
-      </c>
-      <c r="J6" s="15">
-        <v>-8.0935251798561758E-3</v>
-      </c>
-      <c r="K6" s="15">
-        <v>-3.6231884057970065E-3</v>
-      </c>
-      <c r="L6" s="15">
-        <v>-1.3892202548304589E-4</v>
+      <c r="B6" s="16">
+        <v>107.00416088765603</v>
+      </c>
+      <c r="C6" s="16">
+        <v>104.59886719080225</v>
+      </c>
+      <c r="D6" s="16">
+        <v>98.810541575289008</v>
+      </c>
+      <c r="E6" s="16">
+        <v>99.061681256157044</v>
+      </c>
+      <c r="F6" s="16">
+        <v>106.89353001314443</v>
+      </c>
+      <c r="G6" s="16">
+        <v>96.009828009827999</v>
+      </c>
+      <c r="H6" s="16">
+        <v>102.34063457203952</v>
+      </c>
+      <c r="I6" s="16">
+        <v>99.407846799601813</v>
+      </c>
+      <c r="J6" s="16">
+        <v>99.190647482014384</v>
+      </c>
+      <c r="K6" s="16">
+        <v>99.637681159420296</v>
+      </c>
+      <c r="L6" s="16">
+        <v>99.986107797451695</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>45118</v>
       </c>
-      <c r="B7" s="15">
-        <v>6.6475133742817549E-2</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6.2642657874714569E-2</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2.5647697282829007E-3</v>
-      </c>
-      <c r="E7" s="15">
-        <v>5.158722098184132E-3</v>
-      </c>
-      <c r="F7" s="15">
-        <v>3.8410982912224334E-2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>-2.4570024570024551E-2</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3.0919493729411052E-2</v>
-      </c>
-      <c r="I7" s="15">
-        <v>6.5886023337200506E-3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>3.2374100719424481E-2</v>
-      </c>
-      <c r="K7" s="15">
-        <v>2.2358886346300677E-2</v>
-      </c>
-      <c r="L7" s="15">
-        <v>5.5538609752929791E-3</v>
+      <c r="B7" s="16">
+        <v>106.64751337428176</v>
+      </c>
+      <c r="C7" s="16">
+        <v>106.26426578747146</v>
+      </c>
+      <c r="D7" s="16">
+        <v>100.2564769728283</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100.51587220981841</v>
+      </c>
+      <c r="F7" s="16">
+        <v>103.84109829122244</v>
+      </c>
+      <c r="G7" s="16">
+        <v>97.54299754299754</v>
+      </c>
+      <c r="H7" s="16">
+        <v>103.0919493729411</v>
+      </c>
+      <c r="I7" s="16">
+        <v>100.65886023337201</v>
+      </c>
+      <c r="J7" s="16">
+        <v>103.23741007194245</v>
+      </c>
+      <c r="K7" s="16">
+        <v>102.23588863463007</v>
+      </c>
+      <c r="L7" s="16">
+        <v>100.55538609752929</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>45119</v>
       </c>
-      <c r="B8" s="15">
-        <v>7.4697840301168883E-2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>5.0722799898554438E-2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-8.8094264580159676E-3</v>
-      </c>
-      <c r="E8" s="15">
-        <v>-2.8027702738165905E-3</v>
-      </c>
-      <c r="F8" s="15">
-        <v>9.2449247845771909E-2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-2.2604422604422636E-2</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2.8665549326706508E-2</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1.9560554592009449E-2</v>
-      </c>
-      <c r="J8" s="15">
-        <v>3.4622302158273222E-2</v>
-      </c>
-      <c r="K8" s="15">
-        <v>2.8556445461479729E-2</v>
-      </c>
-      <c r="L8" s="15">
-        <v>5.1340748548114323E-3</v>
+      <c r="B8" s="16">
+        <v>107.46978403011688</v>
+      </c>
+      <c r="C8" s="16">
+        <v>105.07227998985545</v>
+      </c>
+      <c r="D8" s="16">
+        <v>99.119057354198404</v>
+      </c>
+      <c r="E8" s="16">
+        <v>99.719722972618342</v>
+      </c>
+      <c r="F8" s="16">
+        <v>109.24492478457719</v>
+      </c>
+      <c r="G8" s="16">
+        <v>97.739557739557739</v>
+      </c>
+      <c r="H8" s="16">
+        <v>102.86655493267065</v>
+      </c>
+      <c r="I8" s="16">
+        <v>101.95605545920094</v>
+      </c>
+      <c r="J8" s="16">
+        <v>103.46223021582732</v>
+      </c>
+      <c r="K8" s="16">
+        <v>102.85564454614797</v>
+      </c>
+      <c r="L8" s="16">
+        <v>100.51340748548114</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>45120</v>
       </c>
-      <c r="B9" s="15">
-        <v>6.3106796116504826E-2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4.9370191901259464E-2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1.4831059733115159E-2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>-4.7525235077759964E-3</v>
-      </c>
-      <c r="F9" s="15">
-        <v>8.9382211187381211E-2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-3.7542997542997614E-2</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2.3001791596832799E-2</v>
-      </c>
-      <c r="I9" s="15">
-        <v>3.2648816548817683E-2</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1.2589928057553879E-2</v>
-      </c>
-      <c r="K9" s="15">
-        <v>2.5600686498856051E-2</v>
-      </c>
-      <c r="L9" s="15">
-        <v>4.0981997517524071E-3</v>
+      <c r="B9" s="16">
+        <v>106.31067961165049</v>
+      </c>
+      <c r="C9" s="16">
+        <v>104.93701919012595</v>
+      </c>
+      <c r="D9" s="16">
+        <v>101.48310597331151</v>
+      </c>
+      <c r="E9" s="16">
+        <v>99.524747649222405</v>
+      </c>
+      <c r="F9" s="16">
+        <v>108.93822111873813</v>
+      </c>
+      <c r="G9" s="16">
+        <v>96.245700245700235</v>
+      </c>
+      <c r="H9" s="16">
+        <v>102.30017915968328</v>
+      </c>
+      <c r="I9" s="16">
+        <v>103.26488165488176</v>
+      </c>
+      <c r="J9" s="16">
+        <v>101.25899280575538</v>
+      </c>
+      <c r="K9" s="16">
+        <v>102.56006864988561</v>
+      </c>
+      <c r="L9" s="16">
+        <v>100.40981997517524</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45121</v>
       </c>
-      <c r="B10" s="15">
-        <v>8.4406578165246549E-2</v>
-      </c>
-      <c r="C10" s="15">
-        <v>5.6555921886888072E-2</v>
-      </c>
-      <c r="D10" s="15">
-        <v>6.0067650447905407E-2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4.2244653402454535E-3</v>
-      </c>
-      <c r="F10" s="15">
-        <v>6.265517744997795E-2</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-3.8427518427518459E-2</v>
-      </c>
-      <c r="H10" s="15">
-        <v>2.4677801537305699E-2</v>
-      </c>
-      <c r="I10" s="15">
-        <v>5.4675820924114715E-2</v>
-      </c>
-      <c r="J10" s="15">
-        <v>2.3830935251798468E-2</v>
-      </c>
-      <c r="K10" s="15">
-        <v>2.3026315789473673E-2</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1.2647944407029543E-2</v>
+      <c r="B10" s="16">
+        <v>108.44065781652465</v>
+      </c>
+      <c r="C10" s="16">
+        <v>105.65559218868881</v>
+      </c>
+      <c r="D10" s="16">
+        <v>106.00676504479054</v>
+      </c>
+      <c r="E10" s="16">
+        <v>100.42244653402454</v>
+      </c>
+      <c r="F10" s="16">
+        <v>106.26551774499779</v>
+      </c>
+      <c r="G10" s="16">
+        <v>96.157248157248148</v>
+      </c>
+      <c r="H10" s="16">
+        <v>102.46778015373057</v>
+      </c>
+      <c r="I10" s="16">
+        <v>105.46758209241148</v>
+      </c>
+      <c r="J10" s="16">
+        <v>102.38309352517985</v>
+      </c>
+      <c r="K10" s="16">
+        <v>102.30263157894737</v>
+      </c>
+      <c r="L10" s="16">
+        <v>101.26479444070296</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45124</v>
       </c>
-      <c r="B11" s="15">
-        <v>9.1242322171587009E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4.573505790852983E-2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>5.7837415901572209E-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2.8230799997797096E-3</v>
-      </c>
-      <c r="F11" s="15">
-        <v>7.2586534248575862E-2</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-3.7936117936117952E-2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1.4968502571808484E-2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>7.2406208201202249E-2</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1.124100719424459E-2</v>
-      </c>
-      <c r="K11" s="15">
-        <v>2.7459954233409523E-2</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1.9086678283769309E-2</v>
+      <c r="B11" s="16">
+        <v>109.12423221715871</v>
+      </c>
+      <c r="C11" s="16">
+        <v>104.57350579085298</v>
+      </c>
+      <c r="D11" s="16">
+        <v>105.78374159015722</v>
+      </c>
+      <c r="E11" s="16">
+        <v>100.28230799997797</v>
+      </c>
+      <c r="F11" s="16">
+        <v>107.25865342485758</v>
+      </c>
+      <c r="G11" s="16">
+        <v>96.206388206388198</v>
+      </c>
+      <c r="H11" s="16">
+        <v>101.49685025718085</v>
+      </c>
+      <c r="I11" s="16">
+        <v>107.24062082012023</v>
+      </c>
+      <c r="J11" s="16">
+        <v>101.12410071942446</v>
+      </c>
+      <c r="K11" s="16">
+        <v>102.74599542334096</v>
+      </c>
+      <c r="L11" s="16">
+        <v>101.90866782837693</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45125</v>
       </c>
-      <c r="B12" s="15">
-        <v>9.9960372498513861E-2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>3.4914193930171589E-2</v>
-      </c>
-      <c r="D12" s="15">
-        <v>9.6680667583540769E-2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>5.2196516831881645E-3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>4.9510734628304354E-2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-4.5405405405405497E-2</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1.1905449921978839E-2</v>
-      </c>
-      <c r="I12" s="15">
-        <v>8.7594886478313372E-2</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-4.4964028776972587E-4</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1.7496186117467616E-2</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1.9083658239737122E-2</v>
+      <c r="B12" s="16">
+        <v>109.99603724985138</v>
+      </c>
+      <c r="C12" s="16">
+        <v>103.49141939301715</v>
+      </c>
+      <c r="D12" s="16">
+        <v>109.66806675835407</v>
+      </c>
+      <c r="E12" s="16">
+        <v>100.52196516831881</v>
+      </c>
+      <c r="F12" s="16">
+        <v>104.95107346283044</v>
+      </c>
+      <c r="G12" s="16">
+        <v>95.459459459459453</v>
+      </c>
+      <c r="H12" s="16">
+        <v>101.19054499219789</v>
+      </c>
+      <c r="I12" s="16">
+        <v>108.75948864783133</v>
+      </c>
+      <c r="J12" s="16">
+        <v>99.955035971223026</v>
+      </c>
+      <c r="K12" s="16">
+        <v>101.74961861174677</v>
+      </c>
+      <c r="L12" s="16">
+        <v>101.90836582397371</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45126</v>
       </c>
-      <c r="B13" s="15">
-        <v>0.10065385377451963</v>
-      </c>
-      <c r="C13" s="15">
-        <v>4.9285653901428583E-2</v>
-      </c>
-      <c r="D13" s="15">
-        <v>9.6494814704679799E-2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1.3120214470185187E-2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>2.7019132466773677E-2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>-5.4643734643734621E-2</v>
-      </c>
-      <c r="H13" s="15">
-        <v>6.4728659769981434E-3</v>
-      </c>
-      <c r="I13" s="15">
-        <v>9.143310652942116E-2</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1.0341726618704916E-2</v>
-      </c>
-      <c r="K13" s="15">
-        <v>3.1512204424103629E-2</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2.4006330012291688E-2</v>
+      <c r="B13" s="16">
+        <v>110.06538537745196</v>
+      </c>
+      <c r="C13" s="16">
+        <v>104.92856539014286</v>
+      </c>
+      <c r="D13" s="16">
+        <v>109.64948147046798</v>
+      </c>
+      <c r="E13" s="16">
+        <v>101.31202144701852</v>
+      </c>
+      <c r="F13" s="16">
+        <v>102.70191324667736</v>
+      </c>
+      <c r="G13" s="16">
+        <v>94.535626535626534</v>
+      </c>
+      <c r="H13" s="16">
+        <v>100.64728659769982</v>
+      </c>
+      <c r="I13" s="16">
+        <v>109.14331065294212</v>
+      </c>
+      <c r="J13" s="16">
+        <v>101.03417266187049</v>
+      </c>
+      <c r="K13" s="16">
+        <v>103.15122044241036</v>
+      </c>
+      <c r="L13" s="16">
+        <v>102.40063300122917</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>45127</v>
       </c>
-      <c r="B14" s="15">
-        <v>0.11382999801862481</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5.106095189787796E-2</v>
-      </c>
-      <c r="D14" s="15">
-        <v>7.7574991636620405E-2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1.1312630539311419E-2</v>
-      </c>
-      <c r="F14" s="15">
-        <v>7.4923324083540077E-2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-6.299754299754301E-2</v>
-      </c>
-      <c r="H14" s="15">
-        <v>2.277061781194023E-2</v>
-      </c>
-      <c r="I14" s="15">
-        <v>9.3752458752818013E-2</v>
-      </c>
-      <c r="J14" s="15">
-        <v>8.0935251798559538E-3</v>
-      </c>
-      <c r="K14" s="15">
-        <v>4.6577040427155048E-2</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2.9385028433714488E-2</v>
+      <c r="B14" s="16">
+        <v>111.38299980186248</v>
+      </c>
+      <c r="C14" s="16">
+        <v>105.10609518978779</v>
+      </c>
+      <c r="D14" s="16">
+        <v>107.75749916366205</v>
+      </c>
+      <c r="E14" s="16">
+        <v>101.13126305393114</v>
+      </c>
+      <c r="F14" s="16">
+        <v>107.492332408354</v>
+      </c>
+      <c r="G14" s="16">
+        <v>93.700245700245702</v>
+      </c>
+      <c r="H14" s="16">
+        <v>102.27706178119402</v>
+      </c>
+      <c r="I14" s="16">
+        <v>109.37524587528181</v>
+      </c>
+      <c r="J14" s="16">
+        <v>100.8093525179856</v>
+      </c>
+      <c r="K14" s="16">
+        <v>104.65770404271551</v>
+      </c>
+      <c r="L14" s="16">
+        <v>102.93850284337145</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45128</v>
       </c>
-      <c r="B15" s="15">
-        <v>0.12561917971071934</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5.7993067884013705E-2</v>
-      </c>
-      <c r="D15" s="15">
-        <v>-1.007322603427141E-2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>5.05311046467809E-2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>7.0687892507667494E-2</v>
-      </c>
-      <c r="G15" s="15">
-        <v>-5.9066339066339069E-2</v>
-      </c>
-      <c r="H15" s="15">
-        <v>2.4099867075073611E-2</v>
-      </c>
-      <c r="I15" s="15">
-        <v>7.5895499156754864E-2</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1.9334532374100544E-2</v>
-      </c>
-      <c r="K15" s="15">
-        <v>4.6100305110602813E-2</v>
-      </c>
-      <c r="L15" s="15">
-        <v>2.1034606684565471E-2</v>
+      <c r="B15" s="16">
+        <v>112.56191797107194</v>
+      </c>
+      <c r="C15" s="16">
+        <v>105.79930678840137</v>
+      </c>
+      <c r="D15" s="16">
+        <v>98.992677396572859</v>
+      </c>
+      <c r="E15" s="16">
+        <v>105.05311046467808</v>
+      </c>
+      <c r="F15" s="16">
+        <v>107.06878925076676</v>
+      </c>
+      <c r="G15" s="16">
+        <v>94.093366093366086</v>
+      </c>
+      <c r="H15" s="16">
+        <v>102.40998670750736</v>
+      </c>
+      <c r="I15" s="16">
+        <v>107.58954991567549</v>
+      </c>
+      <c r="J15" s="16">
+        <v>101.93345323741005</v>
+      </c>
+      <c r="K15" s="16">
+        <v>104.61003051106029</v>
+      </c>
+      <c r="L15" s="16">
+        <v>102.10346066845655</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>45131</v>
       </c>
-      <c r="B16" s="15">
-        <v>0.12017039825638998</v>
-      </c>
-      <c r="C16" s="15">
-        <v>6.3910727872178441E-2</v>
-      </c>
-      <c r="D16" s="15">
-        <v>-6.3561684570495602E-3</v>
-      </c>
-      <c r="E16" s="15">
-        <v>5.8248877864536697E-2</v>
-      </c>
-      <c r="F16" s="15">
-        <v>8.3686285964655882E-2</v>
-      </c>
-      <c r="G16" s="15">
-        <v>-5.4054054054054057E-2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>2.6584985262671168E-2</v>
-      </c>
-      <c r="I16" s="15">
-        <v>6.6987544599638182E-2</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2.2931654676259017E-2</v>
-      </c>
-      <c r="K16" s="15">
-        <v>4.919908466819245E-2</v>
-      </c>
-      <c r="L16" s="15">
-        <v>1.8669912207320172E-2</v>
+      <c r="B16" s="16">
+        <v>112.017039825639</v>
+      </c>
+      <c r="C16" s="16">
+        <v>106.39107278721784</v>
+      </c>
+      <c r="D16" s="16">
+        <v>99.364383154295041</v>
+      </c>
+      <c r="E16" s="16">
+        <v>105.82488778645367</v>
+      </c>
+      <c r="F16" s="16">
+        <v>108.36862859646558</v>
+      </c>
+      <c r="G16" s="16">
+        <v>94.594594594594597</v>
+      </c>
+      <c r="H16" s="16">
+        <v>102.65849852626712</v>
+      </c>
+      <c r="I16" s="16">
+        <v>106.69875445996382</v>
+      </c>
+      <c r="J16" s="16">
+        <v>102.2931654676259</v>
+      </c>
+      <c r="K16" s="16">
+        <v>104.91990846681925</v>
+      </c>
+      <c r="L16" s="16">
+        <v>101.86699122073202</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45132</v>
       </c>
-      <c r="B17" s="15">
-        <v>0.13929066772340004</v>
-      </c>
-      <c r="C17" s="15">
-        <v>8.1156479837686923E-2</v>
-      </c>
-      <c r="D17" s="15">
-        <v>-7.8429914879383222E-3</v>
-      </c>
-      <c r="E17" s="15">
-        <v>4.0233970176375644E-2</v>
-      </c>
-      <c r="F17" s="15">
-        <v>5.8857893968161212E-2</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-6.7518427518427515E-2</v>
-      </c>
-      <c r="H17" s="15">
-        <v>2.1383575102583263E-2</v>
-      </c>
-      <c r="I17" s="15">
-        <v>4.0304731410118366E-2</v>
-      </c>
-      <c r="J17" s="15">
-        <v>2.4730215827338142E-2</v>
-      </c>
-      <c r="K17" s="15">
-        <v>4.409801678108316E-2</v>
-      </c>
-      <c r="L17" s="15">
-        <v>2.0587640167793797E-2</v>
+      <c r="B17" s="16">
+        <v>113.92906677234001</v>
+      </c>
+      <c r="C17" s="16">
+        <v>108.1156479837687</v>
+      </c>
+      <c r="D17" s="16">
+        <v>99.215700851206165</v>
+      </c>
+      <c r="E17" s="16">
+        <v>104.02339701763756</v>
+      </c>
+      <c r="F17" s="16">
+        <v>105.88578939681612</v>
+      </c>
+      <c r="G17" s="16">
+        <v>93.248157248157241</v>
+      </c>
+      <c r="H17" s="16">
+        <v>102.13835751025833</v>
+      </c>
+      <c r="I17" s="16">
+        <v>104.03047314101184</v>
+      </c>
+      <c r="J17" s="16">
+        <v>102.47302158273382</v>
+      </c>
+      <c r="K17" s="16">
+        <v>104.40980167810832</v>
+      </c>
+      <c r="L17" s="16">
+        <v>102.05876401677938</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45133</v>
       </c>
-      <c r="B18" s="15">
-        <v>0.14810778680404213</v>
-      </c>
-      <c r="C18" s="15">
-        <v>8.3946233832107531E-2</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2.7506226071440931E-3</v>
-      </c>
-      <c r="E18" s="15">
-        <v>7.4903020071273474E-2</v>
-      </c>
-      <c r="F18" s="15">
-        <v>9.2887395939827533E-2</v>
-      </c>
-      <c r="G18" s="15">
-        <v>-6.3488943488943517E-2</v>
-      </c>
-      <c r="H18" s="15">
-        <v>2.8029821418251277E-2</v>
-      </c>
-      <c r="I18" s="15">
-        <v>6.4271371051884296E-2</v>
-      </c>
-      <c r="J18" s="15">
-        <v>4.496402877697836E-2</v>
-      </c>
-      <c r="K18" s="15">
-        <v>6.0259344012204563E-2</v>
-      </c>
-      <c r="L18" s="15">
-        <v>2.5304948946155648E-2</v>
+      <c r="B18" s="16">
+        <v>114.81077868040421</v>
+      </c>
+      <c r="C18" s="16">
+        <v>108.39462338321076</v>
+      </c>
+      <c r="D18" s="16">
+        <v>100.27506226071441</v>
+      </c>
+      <c r="E18" s="16">
+        <v>107.49030200712735</v>
+      </c>
+      <c r="F18" s="16">
+        <v>109.28873959398275</v>
+      </c>
+      <c r="G18" s="16">
+        <v>93.651105651105652</v>
+      </c>
+      <c r="H18" s="16">
+        <v>102.80298214182513</v>
+      </c>
+      <c r="I18" s="16">
+        <v>106.42713710518844</v>
+      </c>
+      <c r="J18" s="16">
+        <v>104.49640287769783</v>
+      </c>
+      <c r="K18" s="16">
+        <v>106.02593440122045</v>
+      </c>
+      <c r="L18" s="16">
+        <v>102.53049489461557</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45134</v>
       </c>
-      <c r="B19" s="15">
-        <v>0.15524073707152763</v>
-      </c>
-      <c r="C19" s="15">
-        <v>8.8342209823315532E-2</v>
-      </c>
-      <c r="D19" s="15">
-        <v>5.947292123555048E-3</v>
-      </c>
-      <c r="E19" s="15">
-        <v>8.0569490203910465E-2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.12165912078282459</v>
-      </c>
-      <c r="G19" s="15">
-        <v>-6.4963144963145036E-2</v>
-      </c>
-      <c r="H19" s="15">
-        <v>3.4676067733919069E-2</v>
-      </c>
-      <c r="I19" s="15">
-        <v>7.9665301738145899E-2</v>
-      </c>
-      <c r="J19" s="15">
-        <v>2.1133093525179891E-2</v>
-      </c>
-      <c r="K19" s="15">
-        <v>8.2141495041952783E-2</v>
-      </c>
-      <c r="L19" s="15">
-        <v>2.1934579806173637E-2</v>
+      <c r="B19" s="16">
+        <v>115.52407370715277</v>
+      </c>
+      <c r="C19" s="16">
+        <v>108.83422098233156</v>
+      </c>
+      <c r="D19" s="16">
+        <v>100.5947292123555</v>
+      </c>
+      <c r="E19" s="16">
+        <v>108.05694902039104</v>
+      </c>
+      <c r="F19" s="16">
+        <v>112.16591207828246</v>
+      </c>
+      <c r="G19" s="16">
+        <v>93.503685503685503</v>
+      </c>
+      <c r="H19" s="16">
+        <v>103.46760677339191</v>
+      </c>
+      <c r="I19" s="16">
+        <v>107.96653017381459</v>
+      </c>
+      <c r="J19" s="16">
+        <v>102.11330935251799</v>
+      </c>
+      <c r="K19" s="16">
+        <v>108.21414950419528</v>
+      </c>
+      <c r="L19" s="16">
+        <v>102.19345798061737</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45135</v>
       </c>
-      <c r="B20" s="15">
-        <v>0.12809589855359627</v>
-      </c>
-      <c r="C20" s="15">
-        <v>7.4139825851720298E-2</v>
-      </c>
-      <c r="D20" s="15">
-        <v>-3.4568635468164022E-3</v>
-      </c>
-      <c r="E20" s="15">
-        <v>7.6243475419620399E-2</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.12443405871184443</v>
-      </c>
-      <c r="G20" s="15">
-        <v>-6.6044226044226106E-2</v>
-      </c>
-      <c r="H20" s="15">
-        <v>3.4618274287695927E-2</v>
-      </c>
-      <c r="I20" s="15">
-        <v>9.2664620984322044E-2</v>
-      </c>
-      <c r="J20" s="15">
-        <v>3.9568345323740983E-2</v>
-      </c>
-      <c r="K20" s="15">
-        <v>8.5573989321128918E-2</v>
-      </c>
-      <c r="L20" s="15">
-        <v>2.3695265476970651E-2</v>
+      <c r="B20" s="16">
+        <v>112.80958985535963</v>
+      </c>
+      <c r="C20" s="16">
+        <v>107.41398258517204</v>
+      </c>
+      <c r="D20" s="16">
+        <v>99.654313645318354</v>
+      </c>
+      <c r="E20" s="16">
+        <v>107.62434754196204</v>
+      </c>
+      <c r="F20" s="16">
+        <v>112.44340587118444</v>
+      </c>
+      <c r="G20" s="16">
+        <v>93.395577395577391</v>
+      </c>
+      <c r="H20" s="16">
+        <v>103.4618274287696</v>
+      </c>
+      <c r="I20" s="16">
+        <v>109.2664620984322</v>
+      </c>
+      <c r="J20" s="16">
+        <v>103.9568345323741</v>
+      </c>
+      <c r="K20" s="16">
+        <v>108.55739893211289</v>
+      </c>
+      <c r="L20" s="16">
+        <v>102.36952654769706</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45138</v>
       </c>
-      <c r="B21" s="15">
-        <v>0.16930850009906884</v>
-      </c>
-      <c r="C21" s="15">
-        <v>8.9356665821286541E-2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>7.8429914879381002E-3</v>
-      </c>
-      <c r="E21" s="15">
-        <v>8.9160590594601352E-2</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0.15729516576602887</v>
-      </c>
-      <c r="G21" s="15">
-        <v>-6.2604422604422671E-2</v>
-      </c>
-      <c r="H21" s="15">
-        <v>2.8607755880483143E-2</v>
-      </c>
-      <c r="I21" s="15">
-        <v>7.8509046499933399E-2</v>
-      </c>
-      <c r="J21" s="15">
-        <v>6.7895683453237377E-2</v>
-      </c>
-      <c r="K21" s="15">
-        <v>9.0198321891685973E-2</v>
-      </c>
-      <c r="L21" s="15">
-        <v>3.0378622920322229E-2</v>
+      <c r="B21" s="16">
+        <v>116.93085000990689</v>
+      </c>
+      <c r="C21" s="16">
+        <v>108.93566658212865</v>
+      </c>
+      <c r="D21" s="16">
+        <v>100.78429914879381</v>
+      </c>
+      <c r="E21" s="16">
+        <v>108.91605905946014</v>
+      </c>
+      <c r="F21" s="16">
+        <v>115.72951657660289</v>
+      </c>
+      <c r="G21" s="16">
+        <v>93.739557739557739</v>
+      </c>
+      <c r="H21" s="16">
+        <v>102.86077558804831</v>
+      </c>
+      <c r="I21" s="16">
+        <v>107.85090464999334</v>
+      </c>
+      <c r="J21" s="16">
+        <v>106.78956834532374</v>
+      </c>
+      <c r="K21" s="16">
+        <v>109.0198321891686</v>
+      </c>
+      <c r="L21" s="16">
+        <v>103.03786229203223</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45139</v>
       </c>
-      <c r="B22" s="15">
-        <v>0.22765999603724985</v>
-      </c>
-      <c r="C22" s="15">
-        <v>8.8257671823484429E-2</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1.4905400884659636E-2</v>
-      </c>
-      <c r="E22" s="15">
-        <v>8.3189471315600727E-2</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.17701182999853948</v>
-      </c>
-      <c r="G22" s="15">
-        <v>-5.9557739557739575E-2</v>
-      </c>
-      <c r="H22" s="15">
-        <v>3.0630526498295119E-2</v>
-      </c>
-      <c r="I22" s="15">
-        <v>6.5301053971120959E-2</v>
-      </c>
-      <c r="J22" s="15">
-        <v>8.0935251798561092E-2</v>
-      </c>
-      <c r="K22" s="15">
-        <v>9.0245995423340997E-2</v>
-      </c>
-      <c r="L22" s="15">
-        <v>2.9904476007260428E-2</v>
+      <c r="B22" s="16">
+        <v>122.76599960372498</v>
+      </c>
+      <c r="C22" s="16">
+        <v>108.82576718234844</v>
+      </c>
+      <c r="D22" s="16">
+        <v>101.49054008846596</v>
+      </c>
+      <c r="E22" s="16">
+        <v>108.31894713156007</v>
+      </c>
+      <c r="F22" s="16">
+        <v>117.70118299985396</v>
+      </c>
+      <c r="G22" s="16">
+        <v>94.044226044226036</v>
+      </c>
+      <c r="H22" s="16">
+        <v>103.06305264982952</v>
+      </c>
+      <c r="I22" s="16">
+        <v>106.5301053971121</v>
+      </c>
+      <c r="J22" s="16">
+        <v>108.09352517985612</v>
+      </c>
+      <c r="K22" s="16">
+        <v>109.0245995423341</v>
+      </c>
+      <c r="L22" s="16">
+        <v>102.99044760072604</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45140</v>
       </c>
-      <c r="B23" s="15">
-        <v>0.16554388745789583</v>
-      </c>
-      <c r="C23" s="15">
-        <v>5.2751711894496456E-2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>8.6979147306991411E-3</v>
-      </c>
-      <c r="E23" s="15">
-        <v>6.7515543812456391E-2</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.16737257192931199</v>
-      </c>
-      <c r="G23" s="15">
-        <v>-6.3390663390663349E-2</v>
-      </c>
-      <c r="H23" s="15">
-        <v>1.4968502571808484E-2</v>
-      </c>
-      <c r="I23" s="15">
-        <v>7.395928476377156E-2</v>
-      </c>
-      <c r="J23" s="15">
-        <v>5.9802158273381201E-2</v>
-      </c>
-      <c r="K23" s="15">
-        <v>8.2427536231884035E-2</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1.8295426747322097E-2</v>
+      <c r="B23" s="16">
+        <v>116.55438874578958</v>
+      </c>
+      <c r="C23" s="16">
+        <v>105.27517118944965</v>
+      </c>
+      <c r="D23" s="16">
+        <v>100.86979147306991</v>
+      </c>
+      <c r="E23" s="16">
+        <v>106.75155438124564</v>
+      </c>
+      <c r="F23" s="16">
+        <v>116.7372571929312</v>
+      </c>
+      <c r="G23" s="16">
+        <v>93.660933660933665</v>
+      </c>
+      <c r="H23" s="16">
+        <v>101.49685025718085</v>
+      </c>
+      <c r="I23" s="16">
+        <v>107.39592847637715</v>
+      </c>
+      <c r="J23" s="16">
+        <v>105.98021582733811</v>
+      </c>
+      <c r="K23" s="16">
+        <v>108.24275362318841</v>
+      </c>
+      <c r="L23" s="16">
+        <v>101.82954267473221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45141</v>
       </c>
-      <c r="B24" s="15">
-        <v>0.14028135526055086</v>
-      </c>
-      <c r="C24" s="15">
-        <v>4.6495899907008198E-2</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1.4236330520759566E-2</v>
-      </c>
-      <c r="E24" s="15">
-        <v>5.7724437724440802E-2</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.14794800642617201</v>
-      </c>
-      <c r="G24" s="15">
-        <v>-7.0466830466830555E-2</v>
-      </c>
-      <c r="H24" s="15">
-        <v>7.5709414552389553E-3</v>
-      </c>
-      <c r="I24" s="15">
-        <v>7.1660457781289821E-2</v>
-      </c>
-      <c r="J24" s="15">
-        <v>6.4748201438848962E-2</v>
-      </c>
-      <c r="K24" s="15">
-        <v>8.7909992372235068E-2</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1.3061690439446716E-2</v>
+      <c r="B24" s="16">
+        <v>114.02813552605508</v>
+      </c>
+      <c r="C24" s="16">
+        <v>104.64958999070082</v>
+      </c>
+      <c r="D24" s="16">
+        <v>101.42363305207596</v>
+      </c>
+      <c r="E24" s="16">
+        <v>105.77244377244408</v>
+      </c>
+      <c r="F24" s="16">
+        <v>114.7948006426172</v>
+      </c>
+      <c r="G24" s="16">
+        <v>92.953316953316943</v>
+      </c>
+      <c r="H24" s="16">
+        <v>100.75709414552389</v>
+      </c>
+      <c r="I24" s="16">
+        <v>107.16604577812899</v>
+      </c>
+      <c r="J24" s="16">
+        <v>106.4748201438849</v>
+      </c>
+      <c r="K24" s="16">
+        <v>108.7909992372235</v>
+      </c>
+      <c r="L24" s="16">
+        <v>101.30616904394468</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45142</v>
       </c>
-      <c r="B25" s="15">
-        <v>0.17881910045571647</v>
-      </c>
-      <c r="C25" s="15">
-        <v>3.9817397920365094E-2</v>
-      </c>
-      <c r="D25" s="15">
-        <v>2.4681262312753027E-2</v>
-      </c>
-      <c r="E25" s="15">
-        <v>6.9449338154164098E-2</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.17131590477581415</v>
-      </c>
-      <c r="G25" s="15">
-        <v>-6.5356265356265375E-2</v>
-      </c>
-      <c r="H25" s="15">
-        <v>2.831878864936721E-2</v>
-      </c>
-      <c r="I25" s="15">
-        <v>6.4172165720795205E-2</v>
-      </c>
-      <c r="J25" s="15">
-        <v>6.6546762589928088E-2</v>
-      </c>
-      <c r="K25" s="15">
-        <v>8.5955377574370884E-2</v>
-      </c>
-      <c r="L25" s="15">
-        <v>2.0207114619731126E-2</v>
+      <c r="B25" s="16">
+        <v>117.88191004557164</v>
+      </c>
+      <c r="C25" s="16">
+        <v>103.98173979203651</v>
+      </c>
+      <c r="D25" s="16">
+        <v>102.46812623127531</v>
+      </c>
+      <c r="E25" s="16">
+        <v>106.94493381541641</v>
+      </c>
+      <c r="F25" s="16">
+        <v>117.13159047758141</v>
+      </c>
+      <c r="G25" s="16">
+        <v>93.464373464373466</v>
+      </c>
+      <c r="H25" s="16">
+        <v>102.83187886493673</v>
+      </c>
+      <c r="I25" s="16">
+        <v>106.41721657207952</v>
+      </c>
+      <c r="J25" s="16">
+        <v>106.65467625899281</v>
+      </c>
+      <c r="K25" s="16">
+        <v>108.59553775743709</v>
+      </c>
+      <c r="L25" s="16">
+        <v>102.02071146197311</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45145</v>
       </c>
-      <c r="B26" s="15">
-        <v>0.16504854368932032</v>
-      </c>
-      <c r="C26" s="15">
-        <v>3.0518217938963588E-2</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3.5572241014013128E-2</v>
-      </c>
-      <c r="E26" s="15">
-        <v>7.311336953845271E-2</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.15933985687162244</v>
-      </c>
-      <c r="G26" s="15">
-        <v>-7.3906633906633989E-2</v>
-      </c>
-      <c r="H26" s="15">
-        <v>3.0341559267179186E-2</v>
-      </c>
-      <c r="I26" s="15">
-        <v>6.746646688765523E-2</v>
-      </c>
-      <c r="J26" s="15">
-        <v>7.4190647482014427E-2</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0.10678871090770414</v>
-      </c>
-      <c r="L26" s="15">
-        <v>2.4178472522129235E-2</v>
+      <c r="B26" s="16">
+        <v>116.50485436893203</v>
+      </c>
+      <c r="C26" s="16">
+        <v>103.05182179389635</v>
+      </c>
+      <c r="D26" s="16">
+        <v>103.55722410140132</v>
+      </c>
+      <c r="E26" s="16">
+        <v>107.31133695384527</v>
+      </c>
+      <c r="F26" s="16">
+        <v>115.93398568716225</v>
+      </c>
+      <c r="G26" s="16">
+        <v>92.609336609336594</v>
+      </c>
+      <c r="H26" s="16">
+        <v>103.03415592671792</v>
+      </c>
+      <c r="I26" s="16">
+        <v>106.74664668876552</v>
+      </c>
+      <c r="J26" s="16">
+        <v>107.41906474820144</v>
+      </c>
+      <c r="K26" s="16">
+        <v>110.67887109077041</v>
+      </c>
+      <c r="L26" s="16">
+        <v>102.41784725221292</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45146</v>
       </c>
-      <c r="B27" s="15">
-        <v>0.17208242520309081</v>
-      </c>
-      <c r="C27" s="15">
-        <v>2.6798545946402852E-2</v>
-      </c>
-      <c r="D27" s="15">
-        <v>3.3490688770769106E-2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>7.1607045524911594E-2</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.14765590769680137</v>
-      </c>
-      <c r="G27" s="15">
-        <v>-4.4619164619164597E-2</v>
-      </c>
-      <c r="H27" s="15">
-        <v>2.3406345720395239E-2</v>
-      </c>
-      <c r="I27" s="15">
-        <v>7.2720928561899045E-2</v>
-      </c>
-      <c r="J27" s="15">
-        <v>6.8794964028776828E-2</v>
-      </c>
-      <c r="K27" s="15">
-        <v>9.5204042715484549E-2</v>
-      </c>
-      <c r="L27" s="15">
-        <v>2.3749626269551127E-2</v>
+      <c r="B27" s="16">
+        <v>117.20824252030908</v>
+      </c>
+      <c r="C27" s="16">
+        <v>102.67985459464029</v>
+      </c>
+      <c r="D27" s="16">
+        <v>103.34906887707692</v>
+      </c>
+      <c r="E27" s="16">
+        <v>107.16070455249115</v>
+      </c>
+      <c r="F27" s="16">
+        <v>114.76559076968013</v>
+      </c>
+      <c r="G27" s="16">
+        <v>95.538083538083541</v>
+      </c>
+      <c r="H27" s="16">
+        <v>102.34063457203952</v>
+      </c>
+      <c r="I27" s="16">
+        <v>107.2720928561899</v>
+      </c>
+      <c r="J27" s="16">
+        <v>106.87949640287768</v>
+      </c>
+      <c r="K27" s="16">
+        <v>109.52040427154846</v>
+      </c>
+      <c r="L27" s="16">
+        <v>102.37496262695511</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45147</v>
       </c>
-      <c r="B28" s="15">
-        <v>0.15603328710124842</v>
-      </c>
-      <c r="C28" s="15">
-        <v>5.2582635894834473E-2</v>
-      </c>
-      <c r="D28" s="15">
-        <v>3.6613017135635362E-2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>7.9505068731044792E-2</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.15408207974295318</v>
-      </c>
-      <c r="G28" s="15">
-        <v>-1.73955773955774E-2</v>
-      </c>
-      <c r="H28" s="15">
-        <v>2.1441368548806627E-2</v>
-      </c>
-      <c r="I28" s="15">
-        <v>5.9547144767944982E-2</v>
-      </c>
-      <c r="J28" s="15">
-        <v>7.3291366906474753E-2</v>
-      </c>
-      <c r="K28" s="15">
-        <v>9.9160945842867942E-2</v>
-      </c>
-      <c r="L28" s="15">
-        <v>2.7047514352759316E-2</v>
+      <c r="B28" s="16">
+        <v>115.60332871012484</v>
+      </c>
+      <c r="C28" s="16">
+        <v>105.25826358948345</v>
+      </c>
+      <c r="D28" s="16">
+        <v>103.66130171356353</v>
+      </c>
+      <c r="E28" s="16">
+        <v>107.95050687310447</v>
+      </c>
+      <c r="F28" s="16">
+        <v>115.40820797429532</v>
+      </c>
+      <c r="G28" s="16">
+        <v>98.260442260442261</v>
+      </c>
+      <c r="H28" s="16">
+        <v>102.14413685488066</v>
+      </c>
+      <c r="I28" s="16">
+        <v>105.95471447679449</v>
+      </c>
+      <c r="J28" s="16">
+        <v>107.32913669064747</v>
+      </c>
+      <c r="K28" s="16">
+        <v>109.9160945842868</v>
+      </c>
+      <c r="L28" s="16">
+        <v>102.70475143527594</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>45148</v>
       </c>
-      <c r="B29" s="15">
-        <v>0.13869625520110973</v>
-      </c>
-      <c r="C29" s="15">
-        <v>4.5312367909375206E-2</v>
-      </c>
-      <c r="D29" s="15">
-        <v>3.2672936103780081E-2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>7.6207440485185129E-2</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.14488096976778131</v>
-      </c>
-      <c r="G29" s="15">
-        <v>-3.0270270270270183E-2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>1.1154135121077324E-2</v>
-      </c>
-      <c r="I29" s="15">
-        <v>6.8656930860725884E-2</v>
-      </c>
-      <c r="J29" s="15">
-        <v>6.4298561151079126E-2</v>
-      </c>
-      <c r="K29" s="15">
-        <v>9.6777269260106769E-2</v>
-      </c>
-      <c r="L29" s="15">
-        <v>2.318185799148953E-2</v>
+      <c r="B29" s="16">
+        <v>113.86962552011097</v>
+      </c>
+      <c r="C29" s="16">
+        <v>104.53123679093753</v>
+      </c>
+      <c r="D29" s="16">
+        <v>103.267293610378</v>
+      </c>
+      <c r="E29" s="16">
+        <v>107.62074404851852</v>
+      </c>
+      <c r="F29" s="16">
+        <v>114.48809697677814</v>
+      </c>
+      <c r="G29" s="16">
+        <v>96.972972972972983</v>
+      </c>
+      <c r="H29" s="16">
+        <v>101.11541351210774</v>
+      </c>
+      <c r="I29" s="16">
+        <v>106.86569308607258</v>
+      </c>
+      <c r="J29" s="16">
+        <v>106.42985611510791</v>
+      </c>
+      <c r="K29" s="16">
+        <v>109.67772692601068</v>
+      </c>
+      <c r="L29" s="16">
+        <v>102.31818579914895</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45149</v>
       </c>
-      <c r="B30" s="15">
-        <v>0.13057261739647319</v>
-      </c>
-      <c r="C30" s="15">
-        <v>3.4406965931185862E-2</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1.984908746236469E-2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>7.4171867493913801E-2</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0.22082663940411851</v>
-      </c>
-      <c r="G30" s="15">
-        <v>-1.7199017199017175E-2</v>
-      </c>
-      <c r="H30" s="15">
-        <v>6.2416921921053525E-3</v>
-      </c>
-      <c r="I30" s="15">
-        <v>4.5678923656366388E-2</v>
-      </c>
-      <c r="J30" s="15">
-        <v>6.3399280575539452E-2</v>
-      </c>
-      <c r="K30" s="15">
-        <v>7.9662471395880896E-2</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1.8367907804095918E-2</v>
+      <c r="B30" s="16">
+        <v>113.05726173964732</v>
+      </c>
+      <c r="C30" s="16">
+        <v>103.44069659311859</v>
+      </c>
+      <c r="D30" s="16">
+        <v>101.98490874623647</v>
+      </c>
+      <c r="E30" s="16">
+        <v>107.41718674939138</v>
+      </c>
+      <c r="F30" s="16">
+        <v>122.08266394041185</v>
+      </c>
+      <c r="G30" s="16">
+        <v>98.280098280098287</v>
+      </c>
+      <c r="H30" s="16">
+        <v>100.62416921921053</v>
+      </c>
+      <c r="I30" s="16">
+        <v>104.56789236563664</v>
+      </c>
+      <c r="J30" s="16">
+        <v>106.33992805755395</v>
+      </c>
+      <c r="K30" s="16">
+        <v>107.96624713958809</v>
+      </c>
+      <c r="L30" s="16">
+        <v>101.83679078040959</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>45152</v>
       </c>
-      <c r="B31" s="15">
-        <v>0.11095700416088783</v>
-      </c>
-      <c r="C31" s="15">
-        <v>2.6883083946233732E-2</v>
-      </c>
-      <c r="D31" s="15">
-        <v>3.598111734750753E-2</v>
-      </c>
-      <c r="E31" s="15">
-        <v>8.2884119896555308E-2</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.20870454213524159</v>
-      </c>
-      <c r="G31" s="15">
-        <v>-2.5945945945945903E-2</v>
-      </c>
-      <c r="H31" s="15">
-        <v>2.1961509564814019E-3</v>
-      </c>
-      <c r="I31" s="15">
-        <v>5.3245895807035426E-2</v>
-      </c>
-      <c r="J31" s="15">
-        <v>6.6097122302158251E-2</v>
-      </c>
-      <c r="K31" s="15">
-        <v>8.1474065598779566E-2</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1.6278037333784301E-2</v>
+      <c r="B31" s="16">
+        <v>111.09570041608879</v>
+      </c>
+      <c r="C31" s="16">
+        <v>102.68830839462338</v>
+      </c>
+      <c r="D31" s="16">
+        <v>103.59811173475076</v>
+      </c>
+      <c r="E31" s="16">
+        <v>108.28841198965553</v>
+      </c>
+      <c r="F31" s="16">
+        <v>120.87045421352416</v>
+      </c>
+      <c r="G31" s="16">
+        <v>97.405405405405403</v>
+      </c>
+      <c r="H31" s="16">
+        <v>100.21961509564814</v>
+      </c>
+      <c r="I31" s="16">
+        <v>105.32458958070355</v>
+      </c>
+      <c r="J31" s="16">
+        <v>106.60971223021582</v>
+      </c>
+      <c r="K31" s="16">
+        <v>108.14740655987795</v>
+      </c>
+      <c r="L31" s="16">
+        <v>101.62780373337843</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>45154</v>
       </c>
-      <c r="B32" s="15">
-        <v>0.12631266098672489</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4.6157747907684454E-2</v>
-      </c>
-      <c r="D32" s="15">
-        <v>5.4529234657844761E-2</v>
-      </c>
-      <c r="E32" s="15">
-        <v>9.5565739632176072E-2</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0.17847232364539201</v>
-      </c>
-      <c r="G32" s="15">
-        <v>-8.8452088452088962E-3</v>
-      </c>
-      <c r="H32" s="15">
-        <v>-9.4781251806044242E-3</v>
-      </c>
-      <c r="I32" s="15">
-        <v>8.4109016396246572E-2</v>
-      </c>
-      <c r="J32" s="15">
-        <v>7.0593525179855954E-2</v>
-      </c>
-      <c r="K32" s="15">
-        <v>9.0436689549961979E-2</v>
-      </c>
-      <c r="L32" s="15">
-        <v>1.7939061551517366E-2</v>
+      <c r="B32" s="16">
+        <v>112.63126609867248</v>
+      </c>
+      <c r="C32" s="16">
+        <v>104.61577479076844</v>
+      </c>
+      <c r="D32" s="16">
+        <v>105.45292346578448</v>
+      </c>
+      <c r="E32" s="16">
+        <v>109.5565739632176</v>
+      </c>
+      <c r="F32" s="16">
+        <v>117.8472323645392</v>
+      </c>
+      <c r="G32" s="16">
+        <v>99.115479115479104</v>
+      </c>
+      <c r="H32" s="16">
+        <v>99.052187481939555</v>
+      </c>
+      <c r="I32" s="16">
+        <v>108.41090163962465</v>
+      </c>
+      <c r="J32" s="16">
+        <v>107.0593525179856</v>
+      </c>
+      <c r="K32" s="16">
+        <v>109.04366895499619</v>
+      </c>
+      <c r="L32" s="16">
+        <v>101.79390615515173</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>45155</v>
       </c>
-      <c r="B33" s="15">
-        <v>0.12710521101644545</v>
-      </c>
-      <c r="C33" s="15">
-        <v>3.7703947924591974E-2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>4.9362524625506277E-2</v>
-      </c>
-      <c r="E33" s="15">
-        <v>7.987147186947352E-2</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.22097268876880372</v>
-      </c>
-      <c r="G33" s="15">
-        <v>-1.8673218673218583E-3</v>
-      </c>
-      <c r="H33" s="15">
-        <v>-9.7670924117204683E-3</v>
-      </c>
-      <c r="I33" s="15">
-        <v>6.0556302446266752E-2</v>
-      </c>
-      <c r="J33" s="15">
-        <v>7.1492805755395628E-2</v>
-      </c>
-      <c r="K33" s="15">
-        <v>9.1533180778031964E-2</v>
-      </c>
-      <c r="L33" s="15">
-        <v>1.487069681475961E-2</v>
+      <c r="B33" s="16">
+        <v>112.71052110164455</v>
+      </c>
+      <c r="C33" s="16">
+        <v>103.7703947924592</v>
+      </c>
+      <c r="D33" s="16">
+        <v>104.93625246255063</v>
+      </c>
+      <c r="E33" s="16">
+        <v>107.98714718694735</v>
+      </c>
+      <c r="F33" s="16">
+        <v>122.09726887688038</v>
+      </c>
+      <c r="G33" s="16">
+        <v>99.813267813267814</v>
+      </c>
+      <c r="H33" s="16">
+        <v>99.023290758827955</v>
+      </c>
+      <c r="I33" s="16">
+        <v>106.05563024462667</v>
+      </c>
+      <c r="J33" s="16">
+        <v>107.14928057553956</v>
+      </c>
+      <c r="K33" s="16">
+        <v>109.15331807780319</v>
+      </c>
+      <c r="L33" s="16">
+        <v>101.48706968147596</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>45156</v>
       </c>
-      <c r="B34" s="15">
-        <v>0.13968694273826054</v>
-      </c>
-      <c r="C34" s="15">
-        <v>4.1170005917659847E-2</v>
-      </c>
-      <c r="D34" s="15">
-        <v>3.2449912649146873E-2</v>
-      </c>
-      <c r="E34" s="15">
-        <v>7.5576412857890851E-2</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0.19453775376077109</v>
-      </c>
-      <c r="G34" s="15">
-        <v>-2.5847665847665846E-2</v>
-      </c>
-      <c r="H34" s="15">
-        <v>-1.0287233427729303E-2</v>
-      </c>
-      <c r="I34" s="15">
-        <v>5.0091850453094722E-2</v>
-      </c>
-      <c r="J34" s="15">
-        <v>7.1492805755395628E-2</v>
-      </c>
-      <c r="K34" s="15">
-        <v>8.2093821510297538E-2</v>
-      </c>
-      <c r="L34" s="15">
-        <v>1.2179837582032116E-2</v>
+      <c r="B34" s="16">
+        <v>113.96869427382606</v>
+      </c>
+      <c r="C34" s="16">
+        <v>104.11700059176599</v>
+      </c>
+      <c r="D34" s="16">
+        <v>103.24499126491469</v>
+      </c>
+      <c r="E34" s="16">
+        <v>107.55764128578909</v>
+      </c>
+      <c r="F34" s="16">
+        <v>119.4537753760771</v>
+      </c>
+      <c r="G34" s="16">
+        <v>97.415233415233416</v>
+      </c>
+      <c r="H34" s="16">
+        <v>98.971276657227065</v>
+      </c>
+      <c r="I34" s="16">
+        <v>105.00918504530947</v>
+      </c>
+      <c r="J34" s="16">
+        <v>107.14928057553956</v>
+      </c>
+      <c r="K34" s="16">
+        <v>108.20938215102976</v>
+      </c>
+      <c r="L34" s="16">
+        <v>101.21798375820322</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>45159</v>
       </c>
-      <c r="B35" s="15">
-        <v>0.14473944917772941</v>
-      </c>
-      <c r="C35" s="15">
-        <v>4.9116577901766822E-2</v>
-      </c>
-      <c r="D35" s="15">
-        <v>4.4790543805523608E-2</v>
-      </c>
-      <c r="E35" s="15">
-        <v>8.3840839202452777E-2</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0.23265663794362479</v>
-      </c>
-      <c r="G35" s="15">
-        <v>-3.1842751842751871E-2</v>
-      </c>
-      <c r="H35" s="15">
-        <v>7.8599086863551104E-3</v>
-      </c>
-      <c r="I35" s="15">
-        <v>5.2794340506904902E-2</v>
-      </c>
-      <c r="J35" s="15">
-        <v>9.0827338129496393E-2</v>
-      </c>
-      <c r="K35" s="15">
-        <v>8.4477498093058934E-2</v>
-      </c>
-      <c r="L35" s="15">
-        <v>1.7878660670872515E-2</v>
+      <c r="B35" s="16">
+        <v>114.47394491777294</v>
+      </c>
+      <c r="C35" s="16">
+        <v>104.91165779017668</v>
+      </c>
+      <c r="D35" s="16">
+        <v>104.47905438055236</v>
+      </c>
+      <c r="E35" s="16">
+        <v>108.38408392024527</v>
+      </c>
+      <c r="F35" s="16">
+        <v>123.26566379436248</v>
+      </c>
+      <c r="G35" s="16">
+        <v>96.815724815724806</v>
+      </c>
+      <c r="H35" s="16">
+        <v>100.78599086863551</v>
+      </c>
+      <c r="I35" s="16">
+        <v>105.2794340506905</v>
+      </c>
+      <c r="J35" s="16">
+        <v>109.08273381294964</v>
+      </c>
+      <c r="K35" s="16">
+        <v>108.44774980930589</v>
+      </c>
+      <c r="L35" s="16">
+        <v>101.78786606708725</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>45160</v>
       </c>
-      <c r="B36" s="15">
-        <v>0.20527045769764207</v>
-      </c>
-      <c r="C36" s="15">
-        <v>4.8609349902781318E-2</v>
-      </c>
-      <c r="D36" s="15">
-        <v>4.3563914805040183E-2</v>
-      </c>
-      <c r="E36" s="15">
-        <v>9.0578585803561262E-2</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0.23820651380166491</v>
-      </c>
-      <c r="G36" s="15">
-        <v>-2.7125307125307141E-2</v>
-      </c>
-      <c r="H36" s="15">
-        <v>1.4448361555799538E-2</v>
-      </c>
-      <c r="I36" s="15">
-        <v>5.713542896043089E-2</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0.10701438848920852</v>
-      </c>
-      <c r="K36" s="15">
-        <v>8.4620518688024449E-2</v>
-      </c>
-      <c r="L36" s="15">
-        <v>2.1091987521178135E-2</v>
+      <c r="B36" s="16">
+        <v>120.52704576976421</v>
+      </c>
+      <c r="C36" s="16">
+        <v>104.86093499027814</v>
+      </c>
+      <c r="D36" s="16">
+        <v>104.35639148050402</v>
+      </c>
+      <c r="E36" s="16">
+        <v>109.05785858035613</v>
+      </c>
+      <c r="F36" s="16">
+        <v>123.8206513801665</v>
+      </c>
+      <c r="G36" s="16">
+        <v>97.287469287469293</v>
+      </c>
+      <c r="H36" s="16">
+        <v>101.44483615557995</v>
+      </c>
+      <c r="I36" s="16">
+        <v>105.71354289604309</v>
+      </c>
+      <c r="J36" s="16">
+        <v>110.70143884892086</v>
+      </c>
+      <c r="K36" s="16">
+        <v>108.46205186880245</v>
+      </c>
+      <c r="L36" s="16">
+        <v>102.10919875211782</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>45161</v>
       </c>
-      <c r="B37" s="15">
-        <v>0.15633049336239346</v>
-      </c>
-      <c r="C37" s="15">
-        <v>3.7957561924084837E-2</v>
-      </c>
-      <c r="D37" s="15">
-        <v>4.668624316990666E-2</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0.10637463221582699</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.25310354899956167</v>
-      </c>
-      <c r="G37" s="15">
-        <v>4.3734643734643752E-2</v>
-      </c>
-      <c r="H37" s="15">
-        <v>3.4676067733918625E-3</v>
-      </c>
-      <c r="I37" s="15">
-        <v>6.7367261556565916E-2</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0.11870503597122295</v>
-      </c>
-      <c r="K37" s="15">
-        <v>7.1414950419527168E-2</v>
-      </c>
-      <c r="L37" s="15">
-        <v>2.3810027150195978E-2</v>
+      <c r="B37" s="16">
+        <v>115.63304933623935</v>
+      </c>
+      <c r="C37" s="16">
+        <v>103.79575619240849</v>
+      </c>
+      <c r="D37" s="16">
+        <v>104.66862431699067</v>
+      </c>
+      <c r="E37" s="16">
+        <v>110.63746322158269</v>
+      </c>
+      <c r="F37" s="16">
+        <v>125.31035489995617</v>
+      </c>
+      <c r="G37" s="16">
+        <v>104.37346437346437</v>
+      </c>
+      <c r="H37" s="16">
+        <v>100.34676067733919</v>
+      </c>
+      <c r="I37" s="16">
+        <v>106.7367261556566</v>
+      </c>
+      <c r="J37" s="16">
+        <v>111.87050359712229</v>
+      </c>
+      <c r="K37" s="16">
+        <v>107.14149504195272</v>
+      </c>
+      <c r="L37" s="16">
+        <v>102.3810027150196</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>45162</v>
       </c>
-      <c r="B38" s="15">
-        <v>0.15702397463839923</v>
-      </c>
-      <c r="C38" s="15">
-        <v>3.2969819934060451E-2</v>
-      </c>
-      <c r="D38" s="15">
-        <v>5.8320633386611087E-2</v>
-      </c>
-      <c r="E38" s="15">
-        <v>9.4385107297238591E-2</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0.2793924346429093</v>
-      </c>
-      <c r="G38" s="15">
-        <v>5.2285012285012256E-2</v>
-      </c>
-      <c r="H38" s="15">
-        <v>4.970236375195114E-3</v>
-      </c>
-      <c r="I38" s="15">
-        <v>6.9269267214690622E-2</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0.10251798561151082</v>
-      </c>
-      <c r="K38" s="15">
-        <v>6.6266209000762855E-2</v>
-      </c>
-      <c r="L38" s="15">
-        <v>2.259596944923481E-2</v>
+      <c r="B38" s="16">
+        <v>115.70239746383993</v>
+      </c>
+      <c r="C38" s="16">
+        <v>103.29698199340605</v>
+      </c>
+      <c r="D38" s="16">
+        <v>105.83206333866111</v>
+      </c>
+      <c r="E38" s="16">
+        <v>109.43851072972386</v>
+      </c>
+      <c r="F38" s="16">
+        <v>127.93924346429093</v>
+      </c>
+      <c r="G38" s="16">
+        <v>105.22850122850123</v>
+      </c>
+      <c r="H38" s="16">
+        <v>100.4970236375195</v>
+      </c>
+      <c r="I38" s="16">
+        <v>106.92692672146906</v>
+      </c>
+      <c r="J38" s="16">
+        <v>110.25179856115108</v>
+      </c>
+      <c r="K38" s="16">
+        <v>106.62662090007629</v>
+      </c>
+      <c r="L38" s="16">
+        <v>102.25959694492349</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>45163</v>
       </c>
-      <c r="B39" s="15">
-        <v>0.16168020606300759</v>
-      </c>
-      <c r="C39" s="15">
-        <v>2.3078873953842116E-2</v>
-      </c>
-      <c r="D39" s="15">
-        <v>5.5718693082555726E-2</v>
-      </c>
-      <c r="E39" s="15">
-        <v>7.4131156034088264E-2</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.24872206805900388</v>
-      </c>
-      <c r="G39" s="15">
-        <v>5.3759213759213775E-2</v>
-      </c>
-      <c r="H39" s="15">
-        <v>9.6515055192740729E-3</v>
-      </c>
-      <c r="I39" s="15">
-        <v>6.3409310933453922E-2</v>
-      </c>
-      <c r="J39" s="15">
-        <v>8.8579136690647431E-2</v>
-      </c>
-      <c r="K39" s="15">
-        <v>5.4824561403508776E-2</v>
-      </c>
-      <c r="L39" s="15">
-        <v>1.5994153194753613E-2</v>
+      <c r="B39" s="16">
+        <v>116.16802060630076</v>
+      </c>
+      <c r="C39" s="16">
+        <v>102.30788739538421</v>
+      </c>
+      <c r="D39" s="16">
+        <v>105.57186930825557</v>
+      </c>
+      <c r="E39" s="16">
+        <v>107.41311560340883</v>
+      </c>
+      <c r="F39" s="16">
+        <v>124.87220680590039</v>
+      </c>
+      <c r="G39" s="16">
+        <v>105.37592137592138</v>
+      </c>
+      <c r="H39" s="16">
+        <v>100.96515055192741</v>
+      </c>
+      <c r="I39" s="16">
+        <v>106.34093109334539</v>
+      </c>
+      <c r="J39" s="16">
+        <v>108.85791366906474</v>
+      </c>
+      <c r="K39" s="16">
+        <v>105.48245614035088</v>
+      </c>
+      <c r="L39" s="16">
+        <v>101.59941531947536</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>45166</v>
       </c>
-      <c r="B40" s="15">
-        <v>0.17554983158311854</v>
-      </c>
-      <c r="C40" s="15">
-        <v>1.8513821962972132E-2</v>
-      </c>
-      <c r="D40" s="15">
-        <v>5.2410511838828278E-2</v>
-      </c>
-      <c r="E40" s="15">
-        <v>9.7316332404669303E-2</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.24112750109537018</v>
-      </c>
-      <c r="G40" s="15">
-        <v>3.5970515970515926E-2</v>
-      </c>
-      <c r="H40" s="15">
-        <v>6.0105184072127837E-3</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0.1235653711818776</v>
-      </c>
-      <c r="J40" s="15">
-        <v>8.7230215827338142E-2</v>
-      </c>
-      <c r="K40" s="15">
-        <v>6.5026697177726911E-2</v>
-      </c>
-      <c r="L40" s="15">
-        <v>1.9282981145865019E-2</v>
+      <c r="B40" s="16">
+        <v>117.55498315831186</v>
+      </c>
+      <c r="C40" s="16">
+        <v>101.85138219629721</v>
+      </c>
+      <c r="D40" s="16">
+        <v>105.24105118388283</v>
+      </c>
+      <c r="E40" s="16">
+        <v>109.73163324046693</v>
+      </c>
+      <c r="F40" s="16">
+        <v>124.11275010953702</v>
+      </c>
+      <c r="G40" s="16">
+        <v>103.59705159705159</v>
+      </c>
+      <c r="H40" s="16">
+        <v>100.60105184072128</v>
+      </c>
+      <c r="I40" s="16">
+        <v>112.35653711818776</v>
+      </c>
+      <c r="J40" s="16">
+        <v>108.72302158273382</v>
+      </c>
+      <c r="K40" s="16">
+        <v>106.50266971777269</v>
+      </c>
+      <c r="L40" s="16">
+        <v>101.9282981145865</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>45167</v>
       </c>
-      <c r="B41" s="15">
-        <v>0.16485040618189029</v>
-      </c>
-      <c r="C41" s="15">
-        <v>2.6544931946909989E-2</v>
-      </c>
-      <c r="D41" s="15">
-        <v>5.3897334869717151E-2</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0.10692423692347042</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.22666861399152904</v>
-      </c>
-      <c r="G41" s="15">
-        <v>2.9385749385749449E-2</v>
-      </c>
-      <c r="H41" s="15">
-        <v>-1.15008957984164E-2</v>
-      </c>
-      <c r="I41" s="15">
-        <v>8.7201486027442376E-2</v>
-      </c>
-      <c r="J41" s="15">
-        <v>8.0935251798561092E-2</v>
-      </c>
-      <c r="K41" s="15">
-        <v>5.9877955758962598E-2</v>
-      </c>
-      <c r="L41" s="15">
-        <v>2.2423826939396818E-2</v>
+      <c r="B41" s="16">
+        <v>116.48504061818903</v>
+      </c>
+      <c r="C41" s="16">
+        <v>102.654493194691</v>
+      </c>
+      <c r="D41" s="16">
+        <v>105.38973348697172</v>
+      </c>
+      <c r="E41" s="16">
+        <v>110.69242369234703</v>
+      </c>
+      <c r="F41" s="16">
+        <v>122.66686139915291</v>
+      </c>
+      <c r="G41" s="16">
+        <v>102.93857493857494</v>
+      </c>
+      <c r="H41" s="16">
+        <v>98.849910420158366</v>
+      </c>
+      <c r="I41" s="16">
+        <v>108.72014860274423</v>
+      </c>
+      <c r="J41" s="16">
+        <v>108.09352517985612</v>
+      </c>
+      <c r="K41" s="16">
+        <v>105.98779557589626</v>
+      </c>
+      <c r="L41" s="16">
+        <v>102.24238269393967</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>45168</v>
       </c>
-      <c r="B42" s="15">
-        <v>0.14444224291658414</v>
-      </c>
-      <c r="C42" s="15">
-        <v>2.3839715952320484E-2</v>
-      </c>
-      <c r="D42" s="15">
-        <v>6.6907036389993735E-2</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0.10287344667084031</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.27486490433766608</v>
-      </c>
-      <c r="G42" s="15">
-        <v>2.7813267813267872E-2</v>
-      </c>
-      <c r="H42" s="15">
-        <v>-8.5534300410333719E-3</v>
-      </c>
-      <c r="I42" s="15">
-        <v>8.0883132699103522E-2</v>
-      </c>
-      <c r="J42" s="15">
-        <v>0.10071942446043169</v>
-      </c>
-      <c r="K42" s="15">
-        <v>6.3024408848207703E-2</v>
-      </c>
-      <c r="L42" s="15">
-        <v>2.4939523618254356E-2</v>
+      <c r="B42" s="16">
+        <v>114.44422429165841</v>
+      </c>
+      <c r="C42" s="16">
+        <v>102.38397159523205</v>
+      </c>
+      <c r="D42" s="16">
+        <v>106.69070363899937</v>
+      </c>
+      <c r="E42" s="16">
+        <v>110.28734466708403</v>
+      </c>
+      <c r="F42" s="16">
+        <v>127.4864904337666</v>
+      </c>
+      <c r="G42" s="16">
+        <v>102.78132678132678</v>
+      </c>
+      <c r="H42" s="16">
+        <v>99.144656995896668</v>
+      </c>
+      <c r="I42" s="16">
+        <v>108.08831326991036</v>
+      </c>
+      <c r="J42" s="16">
+        <v>110.07194244604317</v>
+      </c>
+      <c r="K42" s="16">
+        <v>106.30244088482077</v>
+      </c>
+      <c r="L42" s="16">
+        <v>102.49395236182544</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>45169</v>
       </c>
-      <c r="B43" s="15">
-        <v>0.20210025757875982</v>
-      </c>
-      <c r="C43" s="15">
-        <v>1.6146757967706371E-2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>6.7130059844626944E-2</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0.10030862470183832</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.30480502409814503</v>
-      </c>
-      <c r="G43" s="15">
-        <v>5.6707616707616815E-2</v>
-      </c>
-      <c r="H43" s="15">
-        <v>-1.0113853089059655E-2</v>
-      </c>
-      <c r="I43" s="15">
-        <v>9.1720459902231433E-2</v>
-      </c>
-      <c r="J43" s="15">
-        <v>9.4874100719424481E-2</v>
-      </c>
-      <c r="K43" s="15">
-        <v>5.9877955758962598E-2</v>
-      </c>
-      <c r="L43" s="15">
-        <v>2.2242624297462266E-2</v>
+      <c r="B43" s="16">
+        <v>120.21002575787598</v>
+      </c>
+      <c r="C43" s="16">
+        <v>101.61467579677064</v>
+      </c>
+      <c r="D43" s="16">
+        <v>106.7130059844627</v>
+      </c>
+      <c r="E43" s="16">
+        <v>110.03086247018383</v>
+      </c>
+      <c r="F43" s="16">
+        <v>130.48050240981451</v>
+      </c>
+      <c r="G43" s="16">
+        <v>105.67076167076168</v>
+      </c>
+      <c r="H43" s="16">
+        <v>98.988614691094028</v>
+      </c>
+      <c r="I43" s="16">
+        <v>109.17204599022314</v>
+      </c>
+      <c r="J43" s="16">
+        <v>109.48741007194245</v>
+      </c>
+      <c r="K43" s="16">
+        <v>105.98779557589626</v>
+      </c>
+      <c r="L43" s="16">
+        <v>102.22426242974623</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>45170</v>
       </c>
-      <c r="B44" s="15">
-        <v>0.17931444422429177</v>
-      </c>
-      <c r="C44" s="15">
-        <v>3.3392509933215075E-2</v>
-      </c>
-      <c r="D44" s="15">
-        <v>7.3374716574359677E-2</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0.10006435594288576</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0.35533810427924628</v>
-      </c>
-      <c r="G44" s="15">
-        <v>6.9287469287469206E-2</v>
-      </c>
-      <c r="H44" s="15">
-        <v>9.2469513957116334E-4</v>
-      </c>
-      <c r="I44" s="15">
-        <v>0.10283829873119799</v>
-      </c>
-      <c r="J44" s="15">
-        <v>0.11061151079136677</v>
-      </c>
-      <c r="K44" s="15">
-        <v>5.7398932112890932E-2</v>
-      </c>
-      <c r="L44" s="15">
-        <v>3.1317856614349493E-2</v>
+      <c r="B44" s="16">
+        <v>117.93144442242918</v>
+      </c>
+      <c r="C44" s="16">
+        <v>103.33925099332151</v>
+      </c>
+      <c r="D44" s="16">
+        <v>107.33747165743597</v>
+      </c>
+      <c r="E44" s="16">
+        <v>110.00643559428858</v>
+      </c>
+      <c r="F44" s="16">
+        <v>135.53381042792464</v>
+      </c>
+      <c r="G44" s="16">
+        <v>106.92874692874692</v>
+      </c>
+      <c r="H44" s="16">
+        <v>100.09246951395711</v>
+      </c>
+      <c r="I44" s="16">
+        <v>110.2838298731198</v>
+      </c>
+      <c r="J44" s="16">
+        <v>111.06115107913668</v>
+      </c>
+      <c r="K44" s="16">
+        <v>105.73989321128909</v>
+      </c>
+      <c r="L44" s="16">
+        <v>103.13178566143495</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>45173</v>
       </c>
-      <c r="B45" s="15">
-        <v>0.18397067564890035</v>
-      </c>
-      <c r="C45" s="15">
-        <v>2.967283794065434E-2</v>
-      </c>
-      <c r="D45" s="15">
-        <v>8.9172211277552593E-2</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0.10372838732717438</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0.39068205053308014</v>
-      </c>
-      <c r="G45" s="15">
-        <v>7.0466830466830555E-2</v>
-      </c>
-      <c r="H45" s="15">
-        <v>1.7338033866964864E-4</v>
-      </c>
-      <c r="I45" s="15">
-        <v>0.1159436650554353</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0.16232014388489202</v>
-      </c>
-      <c r="K45" s="15">
-        <v>5.7303585049580663E-2</v>
-      </c>
-      <c r="L45" s="15">
-        <v>3.7744510314960511E-2</v>
+      <c r="B45" s="16">
+        <v>118.39706756489004</v>
+      </c>
+      <c r="C45" s="16">
+        <v>102.96728379406544</v>
+      </c>
+      <c r="D45" s="16">
+        <v>108.91722112775525</v>
+      </c>
+      <c r="E45" s="16">
+        <v>110.37283873271744</v>
+      </c>
+      <c r="F45" s="16">
+        <v>139.06820505330802</v>
+      </c>
+      <c r="G45" s="16">
+        <v>107.04668304668306</v>
+      </c>
+      <c r="H45" s="16">
+        <v>100.01733803386696</v>
+      </c>
+      <c r="I45" s="16">
+        <v>111.59436650554353</v>
+      </c>
+      <c r="J45" s="16">
+        <v>116.2320143884892</v>
+      </c>
+      <c r="K45" s="16">
+        <v>105.73035850495806</v>
+      </c>
+      <c r="L45" s="16">
+        <v>103.77445103149606</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45174</v>
       </c>
-      <c r="B46" s="15">
-        <v>0.19328313849811773</v>
-      </c>
-      <c r="C46" s="15">
-        <v>3.3307971933383973E-2</v>
-      </c>
-      <c r="D46" s="15">
-        <v>9.9431290190685084E-2</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0.11262384129903014</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0.38673871768657797</v>
-      </c>
-      <c r="G46" s="15">
-        <v>6.5945945945945939E-2</v>
-      </c>
-      <c r="H46" s="15">
-        <v>8.6690169334802114E-4</v>
-      </c>
-      <c r="I46" s="15">
-        <v>0.10519870143642485</v>
-      </c>
-      <c r="J46" s="15">
-        <v>0.15152877697841727</v>
-      </c>
-      <c r="K46" s="15">
-        <v>7.9233409610984129E-2</v>
-      </c>
-      <c r="L46" s="15">
-        <v>4.2042032972840593E-2</v>
+      <c r="B46" s="16">
+        <v>119.32831384981178</v>
+      </c>
+      <c r="C46" s="16">
+        <v>103.3307971933384</v>
+      </c>
+      <c r="D46" s="16">
+        <v>109.94312901906851</v>
+      </c>
+      <c r="E46" s="16">
+        <v>111.26238412990301</v>
+      </c>
+      <c r="F46" s="16">
+        <v>138.67387176865779</v>
+      </c>
+      <c r="G46" s="16">
+        <v>106.5945945945946</v>
+      </c>
+      <c r="H46" s="16">
+        <v>100.0866901693348</v>
+      </c>
+      <c r="I46" s="16">
+        <v>110.51987014364248</v>
+      </c>
+      <c r="J46" s="16">
+        <v>115.15287769784173</v>
+      </c>
+      <c r="K46" s="16">
+        <v>107.92334096109842</v>
+      </c>
+      <c r="L46" s="16">
+        <v>104.20420329728405</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45175</v>
       </c>
-      <c r="B47" s="15">
-        <v>0.17782841291856566</v>
-      </c>
-      <c r="C47" s="15">
-        <v>3.1786287936427238E-2</v>
-      </c>
-      <c r="D47" s="15">
-        <v>9.8353343493290613E-2</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0.11160605480339458</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0.39258069227398851</v>
-      </c>
-      <c r="G47" s="15">
-        <v>7.0368550368550276E-2</v>
-      </c>
-      <c r="H47" s="15">
-        <v>1.7511414205628961E-2</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0.12173862474044128</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0.14388489208633093</v>
-      </c>
-      <c r="K47" s="15">
-        <v>8.9197177726926036E-2</v>
-      </c>
-      <c r="L47" s="15">
-        <v>4.4005061593797912E-2</v>
+      <c r="B47" s="16">
+        <v>117.78284129185657</v>
+      </c>
+      <c r="C47" s="16">
+        <v>103.17862879364273</v>
+      </c>
+      <c r="D47" s="16">
+        <v>109.83533434932906</v>
+      </c>
+      <c r="E47" s="16">
+        <v>111.16060548033946</v>
+      </c>
+      <c r="F47" s="16">
+        <v>139.25806922739886</v>
+      </c>
+      <c r="G47" s="16">
+        <v>107.03685503685503</v>
+      </c>
+      <c r="H47" s="16">
+        <v>101.7511414205629</v>
+      </c>
+      <c r="I47" s="16">
+        <v>112.17386247404413</v>
+      </c>
+      <c r="J47" s="16">
+        <v>114.38848920863309</v>
+      </c>
+      <c r="K47" s="16">
+        <v>108.91971777269261</v>
+      </c>
+      <c r="L47" s="16">
+        <v>104.40050615937979</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>45176</v>
       </c>
-      <c r="B48" s="15">
-        <v>0.16653457499504665</v>
-      </c>
-      <c r="C48" s="15">
-        <v>3.9648321920703333E-2</v>
-      </c>
-      <c r="D48" s="15">
-        <v>8.9989963944541396E-2</v>
-      </c>
-      <c r="E48" s="15">
-        <v>0.15881099247097819</v>
-      </c>
-      <c r="F48" s="15">
-        <v>0.40484883890755063</v>
-      </c>
-      <c r="G48" s="15">
-        <v>9.0417690417690322E-2</v>
-      </c>
-      <c r="H48" s="15">
-        <v>1.173206958330919E-2</v>
-      </c>
-      <c r="I48" s="15">
-        <v>0.14996083099858715</v>
-      </c>
-      <c r="J48" s="15">
-        <v>0.15197841726618688</v>
-      </c>
-      <c r="K48" s="15">
-        <v>8.0329900839054114E-2</v>
-      </c>
-      <c r="L48" s="15">
-        <v>5.0099510450862361E-2</v>
+      <c r="B48" s="16">
+        <v>116.65345749950467</v>
+      </c>
+      <c r="C48" s="16">
+        <v>103.96483219207033</v>
+      </c>
+      <c r="D48" s="16">
+        <v>108.99899639445414</v>
+      </c>
+      <c r="E48" s="16">
+        <v>115.88109924709782</v>
+      </c>
+      <c r="F48" s="16">
+        <v>140.48488389075507</v>
+      </c>
+      <c r="G48" s="16">
+        <v>109.04176904176903</v>
+      </c>
+      <c r="H48" s="16">
+        <v>101.17320695833092</v>
+      </c>
+      <c r="I48" s="16">
+        <v>114.99608309985871</v>
+      </c>
+      <c r="J48" s="16">
+        <v>115.19784172661869</v>
+      </c>
+      <c r="K48" s="16">
+        <v>108.03299008390542</v>
+      </c>
+      <c r="L48" s="16">
+        <v>105.00995104508624</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>45177</v>
       </c>
-      <c r="B49" s="15">
-        <v>0.21765405191202691</v>
-      </c>
-      <c r="C49" s="15">
-        <v>6.0529207878941449E-2</v>
-      </c>
-      <c r="D49" s="15">
-        <v>9.251756309705228E-2</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0.18128371829461432</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0.43683364977362338</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0.14840294840294832</v>
-      </c>
-      <c r="H49" s="15">
-        <v>2.3926486736404184E-2</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0.17253175425813239</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0.16097122302158273</v>
-      </c>
-      <c r="K49" s="15">
-        <v>7.7850877192982448E-2</v>
-      </c>
-      <c r="L49" s="15">
-        <v>5.6257380232603849E-2</v>
+      <c r="B49" s="16">
+        <v>121.76540519120269</v>
+      </c>
+      <c r="C49" s="16">
+        <v>106.05292078789415</v>
+      </c>
+      <c r="D49" s="16">
+        <v>109.25175630970523</v>
+      </c>
+      <c r="E49" s="16">
+        <v>118.12837182946143</v>
+      </c>
+      <c r="F49" s="16">
+        <v>143.68336497736234</v>
+      </c>
+      <c r="G49" s="16">
+        <v>114.84029484029483</v>
+      </c>
+      <c r="H49" s="16">
+        <v>102.39264867364042</v>
+      </c>
+      <c r="I49" s="16">
+        <v>117.25317542581324</v>
+      </c>
+      <c r="J49" s="16">
+        <v>116.09712230215827</v>
+      </c>
+      <c r="K49" s="16">
+        <v>107.78508771929825</v>
+      </c>
+      <c r="L49" s="16">
+        <v>105.62573802326038</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>45180</v>
       </c>
-      <c r="B50" s="15">
-        <v>0.22439072716465236</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7.337898385324193E-2</v>
-      </c>
-      <c r="D50" s="15">
-        <v>9.7609931977846287E-2</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0.17827107026753253</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0.52533956477289334</v>
-      </c>
-      <c r="G50" s="15">
-        <v>0.12570024570024585</v>
-      </c>
-      <c r="H50" s="15">
-        <v>2.9648037912500591E-2</v>
-      </c>
-      <c r="I50" s="15">
-        <v>0.18635208314090934</v>
-      </c>
-      <c r="J50" s="15">
-        <v>0.16501798561151082</v>
-      </c>
-      <c r="K50" s="15">
-        <v>8.4000762776506699E-2</v>
-      </c>
-      <c r="L50" s="15">
-        <v>6.6277886331582714E-2</v>
+      <c r="B50" s="16">
+        <v>122.43907271646523</v>
+      </c>
+      <c r="C50" s="16">
+        <v>107.33789838532419</v>
+      </c>
+      <c r="D50" s="16">
+        <v>109.76099319778463</v>
+      </c>
+      <c r="E50" s="16">
+        <v>117.82710702675325</v>
+      </c>
+      <c r="F50" s="16">
+        <v>152.53395647728934</v>
+      </c>
+      <c r="G50" s="16">
+        <v>112.57002457002459</v>
+      </c>
+      <c r="H50" s="16">
+        <v>102.96480379125006</v>
+      </c>
+      <c r="I50" s="16">
+        <v>118.63520831409093</v>
+      </c>
+      <c r="J50" s="16">
+        <v>116.50179856115108</v>
+      </c>
+      <c r="K50" s="16">
+        <v>108.40007627765067</v>
+      </c>
+      <c r="L50" s="16">
+        <v>106.62778863315827</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
